--- a/output/inference_results/test_sheets/batch_003/test_sheet (23).xlsx
+++ b/output/inference_results/test_sheets/batch_003/test_sheet (23).xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1白细胞总数</t>
+          <t>白细胞总数</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,14 +468,10 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2中性粒细胞百分比95.5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2中性粒细胞百分比95.5</t>
-        </is>
-      </c>
+          <t>中性粒细胞百分率</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>%</t>
@@ -490,7 +486,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3淋巴细胞百分比</t>
+          <t>淋巴细胞百分率</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,7 +508,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4单核细胞百分比</t>
+          <t>单核细胞百分率</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -534,14 +530,10 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5嗜酸性粒细胞百分E0.0</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5嗜酸性粒细胞百分E0.0</t>
-        </is>
-      </c>
+          <t>嗜酸性粒细胞百分率</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
@@ -552,14 +544,10 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>嗜碱性粒细胞百分上0.1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>嗜碱性粒细胞百分上0.1</t>
-        </is>
-      </c>
+          <t>嗜碱性粒细胞百分率</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>%</t>
@@ -574,7 +562,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>中性粒细胞计数</t>
+          <t>中性粒细胞数</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -596,7 +584,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>淋巴细胞计数</t>
+          <t>淋巴细胞数</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -606,7 +594,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10~9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -618,7 +606,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9单核细胞计数</t>
+          <t>单核细胞数</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,63 +616,55 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10^9/L0.10-0.60</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10^9/L0.10-0.60</t>
+          <t>0.10-0.60</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10嗜酸性粒细胞计数0.00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10嗜酸性粒细胞计数0.00</t>
-        </is>
-      </c>
+          <t>嗜酸性粒细胞数</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10^9/L0.02-0.52</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10^9/L0.02-0.52</t>
+          <t>0.02-0.52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11嗜碱性粒细胞计数0.01</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11嗜碱性粒细胞计数0.01</t>
-        </is>
-      </c>
+          <t>嗜碱性粒细胞</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10^9/L0.00-0.06</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10^9/L0.00-0.06</t>
+          <t>0.00-0.06</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12红细胞计数</t>
+          <t>中性细胞数</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -694,19 +674,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10~12/14.30-5.80</t>
+          <t>10^12/L</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10~12/14.30-5.80</t>
+          <t>4.30-5.80</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13血红蛋白含量</t>
+          <t>平均血红蛋白含量</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -724,7 +704,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14红细胞压积</t>
+          <t>红细胞压积</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -746,91 +726,91 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15平均红细胞体</t>
+          <t>平均红细胞体积</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16平均红细胞血</t>
+          <t>平均红细胞体积</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17平均红细胞血</t>
+          <t>平均红细胞体积</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18RBC分布宽度</t>
+          <t>RBC分布宽度</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19RBC分布宽度</t>
+          <t>RBC分布宽度</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20血小板计数</t>
+          <t>血小板计数</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21平均血小板体</t>
+          <t>平均血小板体积</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22血小板压积</t>
+          <t>血小板压积</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23血小板分布宽</t>
+          <t>血小板分布宽度</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24大血小板计数</t>
+          <t>血小板计数</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25大血小板比率</t>
+          <t>大型血小板比率</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26有核红细胞计</t>
+          <t>有核红细胞计</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27有核红细胞计</t>
+          <t>有核红细胞计</t>
         </is>
       </c>
     </row>
